--- a/PewDiePie_Concatenations.xlsx
+++ b/PewDiePie_Concatenations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Gomez\Google_Drive\Programming\NodeMCU\PewDiePie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Gomez\Google_Drive\Programming\NodeMCU\esp8266_beaconSpam_PewDiePie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23B8151D-C848-4BE5-8A81-028AA428270D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B27D0D3-D5C7-4E3D-A1DF-FF8FE09E463A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="14580" windowHeight="4920" xr2:uid="{BC1972ED-FA85-4788-BC6E-0270749B34F6}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="14580" windowHeight="4920" xr2:uid="{BC1972ED-FA85-4788-BC6E-0270749B34F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AD6C54-6F9F-48A4-B3D2-C88CD13BF215}">
-  <dimension ref="B2:N22"/>
+  <dimension ref="B2:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:N21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -432,7 +432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <f>B2</f>
         <v>Subscribe</v>
@@ -446,7 +446,7 @@
         <v>Pewdiepie</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f>_xlfn.CONCAT(B5:D5)</f>
+        <f t="shared" ref="F5:F12" si="0">_xlfn.CONCAT(B5:D5)</f>
         <v>SubscribeToPewdiepie</v>
       </c>
       <c r="G5" s="2"/>
@@ -463,8 +463,26 @@
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="2" t="str">
+        <f>_xlfn.CONCAT(F5,"!")</f>
+        <v>SubscribeToPewdiepie!</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2" t="str">
+        <f t="shared" ref="R5:R12" si="1">_xlfn.CONCAT(I5,"!")</f>
+        <v>Subscribe_To_Pewdiepie!</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2" t="str">
+        <f t="shared" ref="U5:U12" si="2">_xlfn.CONCAT(L5,"!")</f>
+        <v>Subscribe To Pewdiepie!</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>B2</f>
         <v>Subscribe</v>
@@ -478,25 +496,43 @@
         <v>Pewds</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f>_xlfn.CONCAT(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>SubscribeToPewds</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="str">
-        <f t="shared" ref="I6:I12" si="0">_xlfn.CONCAT(B6,"_",C6,"_",D6)</f>
+        <f t="shared" ref="I6:I12" si="3">_xlfn.CONCAT(B6,"_",C6,"_",D6)</f>
         <v>Subscribe_To_Pewds</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="str">
-        <f t="shared" ref="L6:L12" si="1">_xlfn.CONCAT(B6," ",C6," ",D6)</f>
+        <f t="shared" ref="L6:L12" si="4">_xlfn.CONCAT(B6," ",C6," ",D6)</f>
         <v>Subscribe To Pewds</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="2" t="str">
+        <f t="shared" ref="O6:O12" si="5">_xlfn.CONCAT(F6,"!")</f>
+        <v>SubscribeToPewds!</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Subscribe_To_Pewds!</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Subscribe To Pewds!</v>
+      </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>B2</f>
         <v>Subscribe</v>
@@ -510,25 +546,43 @@
         <v>Pewdiepie</v>
       </c>
       <c r="F7" s="2" t="str">
-        <f>_xlfn.CONCAT(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>Subscribe2Pewdiepie</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Subscribe_2_Pewdiepie</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Subscribe 2 Pewdiepie</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Subscribe2Pewdiepie!</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Subscribe_2_Pewdiepie!</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Subscribe 2 Pewdiepie!</v>
+      </c>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>B2</f>
         <v>Subscribe</v>
@@ -542,25 +596,43 @@
         <v>Pewds</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f>_xlfn.CONCAT(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>Subscribe2Pewds</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Subscribe_2_Pewds</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Subscribe 2 Pewds</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Subscribe2Pewds!</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Subscribe_2_Pewds!</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Subscribe 2 Pewds!</v>
+      </c>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>B3</f>
         <v>Sub</v>
@@ -574,25 +646,43 @@
         <v>Pewdiepie</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f>_xlfn.CONCAT(B9:D9)</f>
+        <f t="shared" si="0"/>
         <v>SubToPewdiepie</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Sub_To_Pewdiepie</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Sub To Pewdiepie</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>SubToPewdiepie!</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Sub_To_Pewdiepie!</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Sub To Pewdiepie!</v>
+      </c>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>B3</f>
         <v>Sub</v>
@@ -606,25 +696,43 @@
         <v>Pewds</v>
       </c>
       <c r="F10" s="2" t="str">
-        <f>_xlfn.CONCAT(B10:D10)</f>
+        <f t="shared" si="0"/>
         <v>SubToPewds</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Sub_To_Pewds</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Sub To Pewds</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>SubToPewds!</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Sub_To_Pewds!</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Sub To Pewds!</v>
+      </c>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>B3</f>
         <v>Sub</v>
@@ -638,25 +746,43 @@
         <v>Pewdiepie</v>
       </c>
       <c r="F11" s="2" t="str">
-        <f>_xlfn.CONCAT(B11:D11)</f>
+        <f t="shared" si="0"/>
         <v>Sub2Pewdiepie</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Sub_2_Pewdiepie</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Sub 2 Pewdiepie</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Sub2Pewdiepie!</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Sub_2_Pewdiepie!</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Sub 2 Pewdiepie!</v>
+      </c>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>B3</f>
         <v>Sub</v>
@@ -670,25 +796,43 @@
         <v>Pewds</v>
       </c>
       <c r="F12" s="2" t="str">
-        <f>_xlfn.CONCAT(B12:D12)</f>
+        <f t="shared" si="0"/>
         <v>Sub2Pewds</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Sub_2_Pewds</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>Sub 2 Pewds</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Sub2Pewds!</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Sub_2_Pewds!</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Sub 2 Pewds!</v>
+      </c>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -699,7 +843,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F14" s="2" t="str">
         <f>_xlfn.CONCAT(CHAR(34),F5,"\n",CHAR(34))</f>
         <v>"SubscribeToPewdiepie\n"</v>
@@ -707,171 +851,385 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="str">
-        <f t="shared" ref="I14:N21" si="2">_xlfn.CONCAT(CHAR(34),I5,"\n",CHAR(34))</f>
+        <f t="shared" ref="I14:L21" si="6">_xlfn.CONCAT(CHAR(34),I5,"\n",CHAR(34))</f>
         <v>"Subscribe_To_Pewdiepie\n"</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="str">
-        <f t="shared" ref="L14:N14" si="3">_xlfn.CONCAT(CHAR(34),L5,"\n",CHAR(34))</f>
+        <f t="shared" ref="L14" si="7">_xlfn.CONCAT(CHAR(34),L5,"\n",CHAR(34))</f>
         <v>"Subscribe To Pewdiepie\n"</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="2" t="str">
+        <f t="shared" ref="O14:O21" si="8">_xlfn.CONCAT(CHAR(34),O5,"\n",CHAR(34))</f>
+        <v>"SubscribeToPewdiepie!\n"</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2" t="str">
+        <f t="shared" ref="R14:W21" si="9">_xlfn.CONCAT(CHAR(34),R5,"\n",CHAR(34))</f>
+        <v>"Subscribe_To_Pewdiepie!\n"</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>"Subscribe To Pewdiepie!\n"</v>
+      </c>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F15" s="2" t="str">
-        <f t="shared" ref="F15:F21" si="4">_xlfn.CONCAT(CHAR(34),F6,"\n",CHAR(34))</f>
+        <f t="shared" ref="F15:F21" si="10">_xlfn.CONCAT(CHAR(34),F6,"\n",CHAR(34))</f>
         <v>"SubscribeToPewds\n"</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>"Subscribe_To_Pewds\n"</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>"Subscribe To Pewds\n"</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"SubscribeToPewds!\n"</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>"Subscribe_To_Pewds!\n"</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>"Subscribe To Pewds!\n"</v>
+      </c>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F16" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"Subscribe2Pewdiepie\n"</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>"Subscribe_2_Pewdiepie\n"</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>"Subscribe 2 Pewdiepie\n"</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"Subscribe2Pewdiepie!\n"</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>"Subscribe_2_Pewdiepie!\n"</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>"Subscribe 2 Pewdiepie!\n"</v>
+      </c>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F17" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"Subscribe2Pewds\n"</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>"Subscribe_2_Pewds\n"</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>"Subscribe 2 Pewds\n"</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"Subscribe2Pewds!\n"</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>"Subscribe_2_Pewds!\n"</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>"Subscribe 2 Pewds!\n"</v>
+      </c>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F18" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"SubToPewdiepie\n"</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>"Sub_To_Pewdiepie\n"</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>"Sub To Pewdiepie\n"</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"SubToPewdiepie!\n"</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>"Sub_To_Pewdiepie!\n"</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>"Sub To Pewdiepie!\n"</v>
+      </c>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F19" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"SubToPewds\n"</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>"Sub_To_Pewds\n"</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>"Sub To Pewds\n"</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"SubToPewds!\n"</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>"Sub_To_Pewds!\n"</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>"Sub To Pewds!\n"</v>
+      </c>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F20" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"Sub2Pewdiepie\n"</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>"Sub_2_Pewdiepie\n"</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>"Sub 2 Pewdiepie\n"</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"Sub2Pewdiepie!\n"</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>"Sub_2_Pewdiepie!\n"</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>"Sub 2 Pewdiepie!\n"</v>
+      </c>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F21" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>"Sub2Pewds\n"</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>"Sub_2_Pewds\n"</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>"Sub 2 Pewds\n"</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>"Sub2Pewds!\n"</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>"Sub_2_Pewds!\n"</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>"Sub 2 Pewds!\n"</v>
+      </c>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="6:23" x14ac:dyDescent="0.25">
       <c r="J22" t="str">
         <f>CHAR(34)</f>
         <v>"</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
+  <mergeCells count="96">
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="L21:N21"/>
     <mergeCell ref="F21:H21"/>
@@ -888,33 +1246,11 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PewDiePie_Concatenations.xlsx
+++ b/PewDiePie_Concatenations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Gomez\Google_Drive\Programming\NodeMCU\esp8266_beaconSpam_PewDiePie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B27D0D3-D5C7-4E3D-A1DF-FF8FE09E463A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD75908-0B99-4797-A2EB-FE4315BAF0B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="14580" windowHeight="4920" xr2:uid="{BC1972ED-FA85-4788-BC6E-0270749B34F6}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="14580" windowHeight="4920" xr2:uid="{BC1972ED-FA85-4788-BC6E-0270749B34F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AD6C54-6F9F-48A4-B3D2-C88CD13BF215}">
-  <dimension ref="B2:W22"/>
+  <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:W21"/>
+      <selection activeCell="I14" sqref="I14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -432,7 +432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <f>B2</f>
         <v>Subscribe</v>
@@ -463,26 +463,8 @@
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2" t="str">
-        <f>_xlfn.CONCAT(F5,"!")</f>
-        <v>SubscribeToPewdiepie!</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2" t="str">
-        <f t="shared" ref="R5:R12" si="1">_xlfn.CONCAT(I5,"!")</f>
-        <v>Subscribe_To_Pewdiepie!</v>
-      </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2" t="str">
-        <f t="shared" ref="U5:U12" si="2">_xlfn.CONCAT(L5,"!")</f>
-        <v>Subscribe To Pewdiepie!</v>
-      </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>B2</f>
         <v>Subscribe</v>
@@ -502,37 +484,19 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="str">
-        <f t="shared" ref="I6:I12" si="3">_xlfn.CONCAT(B6,"_",C6,"_",D6)</f>
+        <f t="shared" ref="I6:I12" si="1">_xlfn.CONCAT(B6,"_",C6,"_",D6)</f>
         <v>Subscribe_To_Pewds</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="str">
-        <f t="shared" ref="L6:L12" si="4">_xlfn.CONCAT(B6," ",C6," ",D6)</f>
+        <f t="shared" ref="L6:L12" si="2">_xlfn.CONCAT(B6," ",C6," ",D6)</f>
         <v>Subscribe To Pewds</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2" t="str">
-        <f t="shared" ref="O6:O12" si="5">_xlfn.CONCAT(F6,"!")</f>
-        <v>SubscribeToPewds!</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Subscribe_To_Pewds!</v>
-      </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Subscribe To Pewds!</v>
-      </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>B2</f>
         <v>Subscribe</v>
@@ -552,37 +516,19 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Subscribe_2_Pewdiepie</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Subscribe 2 Pewdiepie</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Subscribe2Pewdiepie!</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Subscribe_2_Pewdiepie!</v>
-      </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Subscribe 2 Pewdiepie!</v>
-      </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>B2</f>
         <v>Subscribe</v>
@@ -602,37 +548,19 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Subscribe_2_Pewds</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Subscribe 2 Pewds</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Subscribe2Pewds!</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Subscribe_2_Pewds!</v>
-      </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Subscribe 2 Pewds!</v>
-      </c>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>B3</f>
         <v>Sub</v>
@@ -652,37 +580,19 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Sub_To_Pewdiepie</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sub To Pewdiepie</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>SubToPewdiepie!</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Sub_To_Pewdiepie!</v>
-      </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Sub To Pewdiepie!</v>
-      </c>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>B3</f>
         <v>Sub</v>
@@ -702,37 +612,19 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Sub_To_Pewds</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sub To Pewds</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>SubToPewds!</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Sub_To_Pewds!</v>
-      </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Sub To Pewds!</v>
-      </c>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>B3</f>
         <v>Sub</v>
@@ -752,37 +644,19 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Sub_2_Pewdiepie</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sub 2 Pewdiepie</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Sub2Pewdiepie!</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Sub_2_Pewdiepie!</v>
-      </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Sub 2 Pewdiepie!</v>
-      </c>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>B3</f>
         <v>Sub</v>
@@ -802,37 +676,19 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Sub_2_Pewds</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sub 2 Pewds</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Sub2Pewds!</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Sub_2_Pewds!</v>
-      </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Sub 2 Pewds!</v>
-      </c>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -843,7 +699,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F14" s="2" t="str">
         <f>_xlfn.CONCAT(CHAR(34),F5,"\n",CHAR(34))</f>
         <v>"SubscribeToPewdiepie\n"</v>
@@ -851,368 +707,182 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="str">
-        <f t="shared" ref="I14:L21" si="6">_xlfn.CONCAT(CHAR(34),I5,"\n",CHAR(34))</f>
+        <f t="shared" ref="I14:L21" si="3">_xlfn.CONCAT(CHAR(34),I5,"\n",CHAR(34))</f>
         <v>"Subscribe_To_Pewdiepie\n"</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="str">
-        <f t="shared" ref="L14" si="7">_xlfn.CONCAT(CHAR(34),L5,"\n",CHAR(34))</f>
+        <f t="shared" ref="L14" si="4">_xlfn.CONCAT(CHAR(34),L5,"\n",CHAR(34))</f>
         <v>"Subscribe To Pewdiepie\n"</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2" t="str">
-        <f t="shared" ref="O14:O21" si="8">_xlfn.CONCAT(CHAR(34),O5,"\n",CHAR(34))</f>
-        <v>"SubscribeToPewdiepie!\n"</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2" t="str">
-        <f t="shared" ref="R14:W21" si="9">_xlfn.CONCAT(CHAR(34),R5,"\n",CHAR(34))</f>
-        <v>"Subscribe_To_Pewdiepie!\n"</v>
-      </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>"Subscribe To Pewdiepie!\n"</v>
-      </c>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F15" s="2" t="str">
-        <f t="shared" ref="F15:F21" si="10">_xlfn.CONCAT(CHAR(34),F6,"\n",CHAR(34))</f>
+        <f t="shared" ref="F15:F21" si="5">_xlfn.CONCAT(CHAR(34),F6,"\n",CHAR(34))</f>
         <v>"SubscribeToPewds\n"</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>"Subscribe_To_Pewds\n"</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>"Subscribe To Pewds\n"</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>"SubscribeToPewds!\n"</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>"Subscribe_To_Pewds!\n"</v>
-      </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>"Subscribe To Pewds!\n"</v>
-      </c>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F16" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>"Subscribe2Pewdiepie\n"</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>"Subscribe_2_Pewdiepie\n"</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>"Subscribe 2 Pewdiepie\n"</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>"Subscribe2Pewdiepie!\n"</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>"Subscribe_2_Pewdiepie!\n"</v>
-      </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>"Subscribe 2 Pewdiepie!\n"</v>
-      </c>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-    </row>
-    <row r="17" spans="6:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F17" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>"Subscribe2Pewds\n"</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>"Subscribe_2_Pewds\n"</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>"Subscribe 2 Pewds\n"</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>"Subscribe2Pewds!\n"</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>"Subscribe_2_Pewds!\n"</v>
-      </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>"Subscribe 2 Pewds!\n"</v>
-      </c>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-    </row>
-    <row r="18" spans="6:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F18" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>"SubToPewdiepie\n"</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>"Sub_To_Pewdiepie\n"</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>"Sub To Pewdiepie\n"</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>"SubToPewdiepie!\n"</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>"Sub_To_Pewdiepie!\n"</v>
-      </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>"Sub To Pewdiepie!\n"</v>
-      </c>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-    </row>
-    <row r="19" spans="6:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F19" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>"SubToPewds\n"</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>"Sub_To_Pewds\n"</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>"Sub To Pewds\n"</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>"SubToPewds!\n"</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>"Sub_To_Pewds!\n"</v>
-      </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>"Sub To Pewds!\n"</v>
-      </c>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-    </row>
-    <row r="20" spans="6:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F20" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>"Sub2Pewdiepie\n"</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>"Sub_2_Pewdiepie\n"</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>"Sub 2 Pewdiepie\n"</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>"Sub2Pewdiepie!\n"</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>"Sub_2_Pewdiepie!\n"</v>
-      </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>"Sub 2 Pewdiepie!\n"</v>
-      </c>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-    </row>
-    <row r="21" spans="6:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F21" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>"Sub2Pewds\n"</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>"Sub_2_Pewds\n"</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>"Sub 2 Pewds\n"</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>"Sub2Pewds!\n"</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>"Sub_2_Pewds!\n"</v>
-      </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>"Sub 2 Pewds!\n"</v>
-      </c>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-    </row>
-    <row r="22" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="J22" t="str">
-        <f>CHAR(34)</f>
-        <v>"</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
+  <mergeCells count="48">
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="F20:H20"/>
@@ -1229,28 +899,16 @@
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
